--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_15_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_15_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-41547.86983489559</v>
+        <v>-49689.68660229244</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33917475.15840615</v>
+        <v>33917475.15840614</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3510268.673676339</v>
+        <v>3510268.67367634</v>
       </c>
     </row>
     <row r="11">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>396.054118850051</v>
       </c>
       <c r="H11" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>117.8487050421526</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>181.6583672765226</v>
       </c>
     </row>
     <row r="12">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.93117419743029</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>69.2572959501703</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T13" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>275.6161358490523</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1609,16 +1609,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>333.9527060771446</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>418.185631856325</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>52.01429422411432</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U14" t="n">
         <v>256.5237009191198</v>
@@ -1669,7 +1669,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1767,16 +1767,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>96.95261067462506</v>
+        <v>170.6468775146857</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>358.0685425954623</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>17.23782502019392</v>
       </c>
       <c r="G17" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2019,10 +2019,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>132.4467983455243</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>173.4164943363256</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0.178469421081445</v>
       </c>
       <c r="E20" t="n">
-        <v>164.1017117126583</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T21" t="n">
         <v>124.8306395731037</v>
@@ -2259,7 +2259,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,13 +2298,13 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>241.2509301866744</v>
       </c>
       <c r="X22" t="n">
-        <v>137.6384805602085</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2320,22 +2320,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>136.0829573912425</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>37.1848269209218</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>86.87739406814551</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2487,16 +2487,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>55.96684102370097</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>302.8196695381247</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>208.2609885834561</v>
       </c>
     </row>
     <row r="27">
@@ -2715,13 +2715,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2730,10 +2730,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>82.17043591154901</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>239.8247518556274</v>
@@ -2775,10 +2775,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>205.0152146858812</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>216.4413525895329</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>370.4523988984549</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2955,10 +2955,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2967,7 +2967,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>54.31661462074997</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>100.2477850513169</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3018,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>118.8995913862118</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>97.75306566832873</v>
       </c>
     </row>
     <row r="33">
@@ -3192,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>124.955498477721</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>258.7014352855433</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3268,10 +3268,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>195.8230208813473</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>237.8187742085234</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -3429,22 +3429,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>60.07073011995501</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>5.459195474498193</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
         <v>239.8247518556274</v>
@@ -3492,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>103.9050340084179</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>363.2732274219861</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>2.538409905966792</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>55.9668410237014</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>414.496143130328</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>191.4491362266146</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3909,13 +3909,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>106.9888895409445</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8247518556274</v>
+        <v>183.8353109950418</v>
       </c>
       <c r="U43" t="n">
         <v>275.6027656317444</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>129.6384948720838</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>275.11063723486</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T45" t="n">
         <v>124.8306395731037</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>118.9505426372759</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4143,19 +4143,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>111.3771833911545</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144772</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>275.6027656317444</v>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1553.703431423125</v>
+        <v>855.9192452014109</v>
       </c>
       <c r="C11" t="n">
-        <v>1553.703431423125</v>
+        <v>855.9192452014109</v>
       </c>
       <c r="D11" t="n">
-        <v>1131.293702275322</v>
+        <v>855.9192452014109</v>
       </c>
       <c r="E11" t="n">
-        <v>1131.293702275322</v>
+        <v>433.509516053608</v>
       </c>
       <c r="F11" t="n">
-        <v>708.8839731275193</v>
+        <v>433.509516053608</v>
       </c>
       <c r="G11" t="n">
-        <v>308.8293076224172</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H11" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I11" t="n">
-        <v>83.79828774524211</v>
+        <v>83.79828774524243</v>
       </c>
       <c r="J11" t="n">
-        <v>195.5292216073326</v>
+        <v>195.529221607333</v>
       </c>
       <c r="K11" t="n">
-        <v>362.9849282099029</v>
+        <v>362.9849282099032</v>
       </c>
       <c r="L11" t="n">
-        <v>570.7285396968687</v>
+        <v>570.7285396968689</v>
       </c>
       <c r="M11" t="n">
-        <v>801.8833353847202</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N11" t="n">
         <v>1036.7784573317</v>
@@ -5071,22 +5071,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T11" t="n">
-        <v>1672.742527425299</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U11" t="n">
-        <v>1672.742527425299</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="V11" t="n">
-        <v>1553.703431423125</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="W11" t="n">
-        <v>1553.703431423125</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="X11" t="n">
-        <v>1553.703431423125</v>
+        <v>1039.412545480727</v>
       </c>
       <c r="Y11" t="n">
-        <v>1553.703431423125</v>
+        <v>855.9192452014109</v>
       </c>
     </row>
     <row r="12">
@@ -5102,10 +5102,10 @@
         <v>425.510762671888</v>
       </c>
       <c r="D12" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184412</v>
       </c>
       <c r="E12" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453949</v>
       </c>
       <c r="F12" t="n">
         <v>152.9162207615566</v>
@@ -5120,25 +5120,25 @@
         <v>83.76937108752902</v>
       </c>
       <c r="J12" t="n">
-        <v>474.8738748284774</v>
+        <v>167.4171577960269</v>
       </c>
       <c r="K12" t="n">
-        <v>588.6118936739097</v>
+        <v>281.1551766414592</v>
       </c>
       <c r="L12" t="n">
-        <v>741.5466961549138</v>
+        <v>434.0899791224633</v>
       </c>
       <c r="M12" t="n">
-        <v>920.0143971816303</v>
+        <v>612.5576801491798</v>
       </c>
       <c r="N12" t="n">
-        <v>1103.205607207306</v>
+        <v>795.7488901748552</v>
       </c>
       <c r="O12" t="n">
-        <v>1270.789775072916</v>
+        <v>963.3330580404652</v>
       </c>
       <c r="P12" t="n">
-        <v>1405.290844266289</v>
+        <v>1097.834127233839</v>
       </c>
       <c r="Q12" t="n">
         <v>1511.8379027716</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33.45485054850599</v>
+        <v>746.1548428411313</v>
       </c>
       <c r="C13" t="n">
-        <v>33.45485054850599</v>
+        <v>573.5931313243562</v>
       </c>
       <c r="D13" t="n">
-        <v>33.45485054850599</v>
+        <v>407.715138525879</v>
       </c>
       <c r="E13" t="n">
-        <v>33.45485054850599</v>
+        <v>237.9571347766162</v>
       </c>
       <c r="F13" t="n">
-        <v>33.45485054850599</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="G13" t="n">
-        <v>33.45485054850599</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="H13" t="n">
         <v>33.45485054850599</v>
@@ -5205,16 +5205,16 @@
         <v>505.1482476164479</v>
       </c>
       <c r="L13" t="n">
-        <v>919.1520231542094</v>
+        <v>592.940721149037</v>
       </c>
       <c r="M13" t="n">
-        <v>1204.294129106831</v>
+        <v>861.7096435212256</v>
       </c>
       <c r="N13" t="n">
-        <v>1294.657997700085</v>
+        <v>952.0735121144794</v>
       </c>
       <c r="O13" t="n">
-        <v>1378.12365616191</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P13" t="n">
         <v>1449.542946114066</v>
@@ -5226,25 +5226,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S13" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T13" t="n">
-        <v>1429.437390511417</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="U13" t="n">
-        <v>1151.037253290152</v>
+        <v>1245.600917940732</v>
       </c>
       <c r="V13" t="n">
-        <v>864.0817451605828</v>
+        <v>1245.600917940732</v>
       </c>
       <c r="W13" t="n">
-        <v>592.0553407468744</v>
+        <v>973.5745135270231</v>
       </c>
       <c r="X13" t="n">
-        <v>346.6635860802869</v>
+        <v>973.5745135270231</v>
       </c>
       <c r="Y13" t="n">
-        <v>119.2439153943952</v>
+        <v>746.1548428411313</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>646.1552733569067</v>
+        <v>783.7787279056893</v>
       </c>
       <c r="C14" t="n">
-        <v>308.8293076224172</v>
+        <v>783.7787279056893</v>
       </c>
       <c r="D14" t="n">
-        <v>308.8293076224172</v>
+        <v>361.3689987578862</v>
       </c>
       <c r="E14" t="n">
-        <v>308.8293076224172</v>
+        <v>361.3689987578862</v>
       </c>
       <c r="F14" t="n">
         <v>308.8293076224172</v>
@@ -5275,13 +5275,13 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I14" t="n">
-        <v>83.79828774524186</v>
+        <v>83.79828774524213</v>
       </c>
       <c r="J14" t="n">
         <v>195.5292216073327</v>
       </c>
       <c r="K14" t="n">
-        <v>362.9849282099031</v>
+        <v>362.984928209903</v>
       </c>
       <c r="L14" t="n">
         <v>570.7285396968688</v>
@@ -5293,37 +5293,37 @@
         <v>1036.7784573317</v>
       </c>
       <c r="O14" t="n">
-        <v>1258.583260144776</v>
+        <v>1258.583260144777</v>
       </c>
       <c r="P14" t="n">
-        <v>1447.888527710259</v>
+        <v>1447.88852771026</v>
       </c>
       <c r="Q14" t="n">
         <v>1590.048899840628</v>
       </c>
       <c r="R14" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S14" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T14" t="n">
-        <v>1672.742527425299</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U14" t="n">
-        <v>1413.627678012047</v>
+        <v>1146.395677971863</v>
       </c>
       <c r="V14" t="n">
-        <v>1051.010727945873</v>
+        <v>783.7787279056893</v>
       </c>
       <c r="W14" t="n">
-        <v>646.1552733569067</v>
+        <v>783.7787279056893</v>
       </c>
       <c r="X14" t="n">
-        <v>646.1552733569067</v>
+        <v>783.7787279056893</v>
       </c>
       <c r="Y14" t="n">
-        <v>646.1552733569067</v>
+        <v>783.7787279056893</v>
       </c>
     </row>
     <row r="15">
@@ -5339,22 +5339,22 @@
         <v>425.5107626718881</v>
       </c>
       <c r="D15" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184414</v>
       </c>
       <c r="E15" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453951</v>
       </c>
       <c r="F15" t="n">
         <v>152.9162207615567</v>
       </c>
       <c r="G15" t="n">
-        <v>68.24978812594551</v>
+        <v>68.24978812594553</v>
       </c>
       <c r="H15" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I15" t="n">
-        <v>83.76937108752902</v>
+        <v>83.76937108752904</v>
       </c>
       <c r="J15" t="n">
         <v>474.8738748284774</v>
@@ -5366,7 +5366,7 @@
         <v>741.5466961549138</v>
       </c>
       <c r="M15" t="n">
-        <v>920.0143971816303</v>
+        <v>920.0143971816304</v>
       </c>
       <c r="N15" t="n">
         <v>1103.205607207306</v>
@@ -5375,7 +5375,7 @@
         <v>1270.789775072916</v>
       </c>
       <c r="P15" t="n">
-        <v>1405.290844266289</v>
+        <v>1405.29084426629</v>
       </c>
       <c r="Q15" t="n">
         <v>1511.8379027716</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>477.8518383103813</v>
+        <v>205.8254338966734</v>
       </c>
       <c r="C16" t="n">
-        <v>379.9199083360126</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="D16" t="n">
-        <v>379.9199083360126</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="E16" t="n">
-        <v>210.1619045867498</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F16" t="n">
         <v>33.45485054850599</v>
@@ -5436,52 +5436,52 @@
         <v>33.45485054850599</v>
       </c>
       <c r="J16" t="n">
-        <v>161.7834697148434</v>
+        <v>75.2037845501536</v>
       </c>
       <c r="K16" t="n">
-        <v>230.3897930453123</v>
+        <v>418.5685624517581</v>
       </c>
       <c r="L16" t="n">
-        <v>318.1822665779014</v>
+        <v>506.3610359843472</v>
       </c>
       <c r="M16" t="n">
-        <v>732.1860421156629</v>
+        <v>598.9258899113639</v>
       </c>
       <c r="N16" t="n">
-        <v>1146.189817653424</v>
+        <v>1012.929665449126</v>
       </c>
       <c r="O16" t="n">
-        <v>1546.316431026242</v>
+        <v>1378.123656161911</v>
       </c>
       <c r="P16" t="n">
-        <v>1617.735720978399</v>
+        <v>1449.542946114067</v>
       </c>
       <c r="Q16" t="n">
-        <v>1667.182735391305</v>
+        <v>1667.182735391306</v>
       </c>
       <c r="R16" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S16" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="T16" t="n">
-        <v>1429.437390511417</v>
+        <v>1429.437390511418</v>
       </c>
       <c r="U16" t="n">
-        <v>1429.437390511417</v>
+        <v>1429.437390511418</v>
       </c>
       <c r="V16" t="n">
         <v>1142.481882381848</v>
       </c>
       <c r="W16" t="n">
-        <v>1142.481882381848</v>
+        <v>870.4554779681398</v>
       </c>
       <c r="X16" t="n">
-        <v>897.0901277152602</v>
+        <v>625.0637233015523</v>
       </c>
       <c r="Y16" t="n">
-        <v>669.6704570293684</v>
+        <v>397.6440526156605</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>716.4307943255671</v>
+        <v>900.0309721598754</v>
       </c>
       <c r="C17" t="n">
-        <v>716.4307943255671</v>
+        <v>900.0309721598754</v>
       </c>
       <c r="D17" t="n">
-        <v>716.4307943255671</v>
+        <v>464.1211873343199</v>
       </c>
       <c r="E17" t="n">
-        <v>716.4307943255671</v>
+        <v>464.1211873343199</v>
       </c>
       <c r="F17" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867029</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
@@ -5548,19 +5548,19 @@
         <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>1849.01926465316</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V17" t="n">
-        <v>1486.402314586987</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="W17" t="n">
-        <v>1486.402314586987</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="X17" t="n">
-        <v>1486.402314586987</v>
+        <v>1326.330542644783</v>
       </c>
       <c r="Y17" t="n">
-        <v>1078.11619088664</v>
+        <v>1326.330542644783</v>
       </c>
     </row>
     <row r="18">
@@ -5585,25 +5585,25 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210684</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M18" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.291841223631</v>
+        <v>896.8524940391952</v>
       </c>
       <c r="C19" t="n">
-        <v>919.7301297068562</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D19" t="n">
-        <v>753.852136908379</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E19" t="n">
-        <v>584.0941331591162</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F19" t="n">
-        <v>407.3870791208724</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G19" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
         <v>192.6919004158277</v>
@@ -5679,10 +5679,10 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>688.1212571728194</v>
+        <v>862.082053811994</v>
       </c>
       <c r="M19" t="n">
-        <v>818.7256495113488</v>
+        <v>992.6864461505235</v>
       </c>
       <c r="N19" t="n">
         <v>1120.185357954413</v>
@@ -5700,25 +5700,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T19" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U19" t="n">
-        <v>1973.653814855378</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V19" t="n">
-        <v>1686.698306725809</v>
+        <v>1561.482538110662</v>
       </c>
       <c r="W19" t="n">
-        <v>1686.698306725809</v>
+        <v>1561.482538110662</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.53013062851</v>
+        <v>1316.090783444074</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.110459942618</v>
+        <v>1088.671112758182</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1514.88554354214</v>
+        <v>885.0319878285608</v>
       </c>
       <c r="C20" t="n">
-        <v>1076.743070725563</v>
+        <v>446.8895150119841</v>
       </c>
       <c r="D20" t="n">
-        <v>640.8332859000079</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E20" t="n">
-        <v>475.073981139747</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867024</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447737</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W20" t="n">
-        <v>2360.327577447737</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="X20" t="n">
-        <v>1941.185114027048</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="Y20" t="n">
-        <v>1941.185114027048</v>
+        <v>885.0319878285608</v>
       </c>
     </row>
     <row r="21">
@@ -5822,13 +5822,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
@@ -5837,10 +5837,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M21" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.291841223631</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C22" t="n">
-        <v>919.7301297068562</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D22" t="n">
-        <v>753.852136908379</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E22" t="n">
-        <v>584.0941331591162</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F22" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G22" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>564.2504555545215</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L22" t="n">
-        <v>1106.331138940781</v>
+        <v>601.5415720081295</v>
       </c>
       <c r="M22" t="n">
-        <v>1580.548470240637</v>
+        <v>732.1459643466588</v>
       </c>
       <c r="N22" t="n">
-        <v>1708.047382044527</v>
+        <v>1301.903679308193</v>
       </c>
       <c r="O22" t="n">
-        <v>1825.813263392288</v>
+        <v>1839.338809881736</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T22" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U22" t="n">
-        <v>1937.514407000715</v>
+        <v>1937.514407000714</v>
       </c>
       <c r="V22" t="n">
-        <v>1650.558898871145</v>
+        <v>1937.514407000714</v>
       </c>
       <c r="W22" t="n">
-        <v>1650.558898871145</v>
+        <v>1693.826598731346</v>
       </c>
       <c r="X22" t="n">
-        <v>1511.53013062851</v>
+        <v>1448.434844064758</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.110459942618</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2319.861207662534</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="C23" t="n">
-        <v>1881.718734845957</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="D23" t="n">
-        <v>1445.808950020401</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="E23" t="n">
-        <v>1012.034205178697</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F23" t="n">
-        <v>584.1667755879043</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G23" t="n">
-        <v>184.6640842673815</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H23" t="n">
         <v>47.20655154895473</v>
@@ -5989,19 +5989,19 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M23" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O23" t="n">
         <v>1775.969506973259</v>
@@ -6019,22 +6019,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U23" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V23" t="n">
-        <v>2319.861207662534</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="W23" t="n">
-        <v>2319.861207662534</v>
+        <v>1707.912574832218</v>
       </c>
       <c r="X23" t="n">
-        <v>2319.861207662534</v>
+        <v>1288.770111411529</v>
       </c>
       <c r="Y23" t="n">
-        <v>2319.861207662534</v>
+        <v>880.4839877111824</v>
       </c>
     </row>
     <row r="24">
@@ -6059,13 +6059,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043085</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
@@ -6074,10 +6074,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M24" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N24" t="n">
         <v>1061.861364220108</v>
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>720.1454400009515</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C25" t="n">
-        <v>547.5837284841764</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="D25" t="n">
-        <v>381.7057356856991</v>
+        <v>450.2037719866643</v>
       </c>
       <c r="E25" t="n">
-        <v>211.9477319364363</v>
+        <v>280.4457682374015</v>
       </c>
       <c r="F25" t="n">
-        <v>211.9477319364363</v>
+        <v>103.7387141991577</v>
       </c>
       <c r="G25" t="n">
-        <v>47.20655154895473</v>
+        <v>103.7387141991577</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895473</v>
+        <v>103.7387141991577</v>
       </c>
       <c r="I25" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="J25" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K25" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L25" t="n">
-        <v>481.9462364092379</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M25" t="n">
-        <v>1066.127311827553</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N25" t="n">
-        <v>1635.885026789087</v>
+        <v>1399.801244395024</v>
       </c>
       <c r="O25" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2013.98275358362</v>
+        <v>485.3490243655314</v>
       </c>
       <c r="C26" t="n">
-        <v>2013.98275358362</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="D26" t="n">
-        <v>1578.072968758064</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="E26" t="n">
-        <v>1144.298223916359</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F26" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G26" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M26" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N26" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O26" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q26" t="n">
         <v>2243.650993163596</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T26" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U26" t="n">
-        <v>2319.861207662534</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V26" t="n">
-        <v>2319.861207662534</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="W26" t="n">
-        <v>2013.98275358362</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="X26" t="n">
-        <v>2013.98275358362</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="Y26" t="n">
-        <v>2013.98275358362</v>
+        <v>911.6485948504392</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E27" t="n">
-        <v>246.9041403765402</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G27" t="n">
         <v>79.1492015823585</v>
@@ -6302,28 +6302,28 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043085</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J27" t="n">
-        <v>175.3166270668979</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K27" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L27" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M27" t="n">
-        <v>803.3877032987878</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N27" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O27" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P27" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q27" t="n">
         <v>1614.947661807679</v>
@@ -6344,13 +6344,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W27" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X27" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y27" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>471.6552262893761</v>
+        <v>926.413848425154</v>
       </c>
       <c r="C28" t="n">
-        <v>471.6552262893761</v>
+        <v>753.852136908379</v>
       </c>
       <c r="D28" t="n">
-        <v>471.6552262893761</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E28" t="n">
-        <v>471.6552262893761</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F28" t="n">
-        <v>294.9481722511323</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G28" t="n">
-        <v>130.2069918636507</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J28" t="n">
         <v>106.1122152511379</v>
@@ -6390,19 +6390,19 @@
         <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>481.9462364092379</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M28" t="n">
-        <v>1066.127311827553</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N28" t="n">
-        <v>1635.885026789087</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O28" t="n">
-        <v>2173.32015736263</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P28" t="n">
-        <v>2274.089213540313</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
@@ -6411,25 +6411,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S28" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T28" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U28" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V28" t="n">
-        <v>1408.311674774551</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W28" t="n">
-        <v>1136.285270360843</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="X28" t="n">
-        <v>890.893515694255</v>
+        <v>1345.652137830033</v>
       </c>
       <c r="Y28" t="n">
-        <v>663.4738450083632</v>
+        <v>1118.232467144141</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>701.7439652528263</v>
+        <v>1293.318111528908</v>
       </c>
       <c r="C29" t="n">
-        <v>483.1163363745102</v>
+        <v>855.1756387123312</v>
       </c>
       <c r="D29" t="n">
-        <v>47.20655154895474</v>
+        <v>855.1756387123312</v>
       </c>
       <c r="E29" t="n">
-        <v>47.20655154895474</v>
+        <v>421.4008938706264</v>
       </c>
       <c r="F29" t="n">
         <v>47.20655154895474</v>
@@ -6463,13 +6463,13 @@
         <v>118.4065018001355</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M29" t="n">
         <v>1131.58869045549</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U29" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V29" t="n">
-        <v>2360.327577447737</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="W29" t="n">
-        <v>1955.47212285877</v>
+        <v>1293.318111528908</v>
       </c>
       <c r="X29" t="n">
-        <v>1536.329659438081</v>
+        <v>1293.318111528908</v>
       </c>
       <c r="Y29" t="n">
-        <v>1128.043535737734</v>
+        <v>1293.318111528908</v>
       </c>
     </row>
     <row r="30">
@@ -6524,13 +6524,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E30" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
         <v>79.1492015823585</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>616.081764785142</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C31" t="n">
-        <v>443.520053268367</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D31" t="n">
-        <v>443.520053268367</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E31" t="n">
-        <v>443.520053268367</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F31" t="n">
-        <v>266.8129992301232</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G31" t="n">
-        <v>102.0718188426416</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H31" t="n">
         <v>47.20655154895474</v>
@@ -6627,10 +6627,10 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L31" t="n">
-        <v>733.4227107706877</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M31" t="n">
-        <v>1317.603786189002</v>
+        <v>1690.512214359095</v>
       </c>
       <c r="N31" t="n">
         <v>1887.361501150537</v>
@@ -6657,16 +6657,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V31" t="n">
-        <v>1552.738213270317</v>
+        <v>1738.433332459162</v>
       </c>
       <c r="W31" t="n">
-        <v>1280.711808856609</v>
+        <v>1466.406928045454</v>
       </c>
       <c r="X31" t="n">
-        <v>1035.320054190021</v>
+        <v>1221.015173378866</v>
       </c>
       <c r="Y31" t="n">
-        <v>807.9003835041292</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1698.173566117874</v>
+        <v>919.1237692072363</v>
       </c>
       <c r="C32" t="n">
-        <v>1698.173566117874</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="D32" t="n">
-        <v>1578.072968758064</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E32" t="n">
-        <v>1144.298223916359</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F32" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G32" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L32" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M32" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O32" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P32" t="n">
         <v>2043.069798152528</v>
@@ -6730,22 +6730,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U32" t="n">
-        <v>2060.790516184048</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V32" t="n">
-        <v>1698.173566117874</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W32" t="n">
-        <v>1698.173566117874</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="X32" t="n">
-        <v>1698.173566117874</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="Y32" t="n">
-        <v>1698.173566117874</v>
+        <v>1345.423339692144</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J33" t="n">
         <v>175.316627066898</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>858.3289888817349</v>
+        <v>730.9745012407179</v>
       </c>
       <c r="C34" t="n">
-        <v>685.7672773649598</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="D34" t="n">
-        <v>519.8892845664825</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E34" t="n">
-        <v>350.1312808172198</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F34" t="n">
-        <v>173.424226778976</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G34" t="n">
         <v>47.20655154895473</v>
@@ -6861,22 +6861,22 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K34" t="n">
-        <v>358.07543479094</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L34" t="n">
-        <v>481.9462364092379</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M34" t="n">
-        <v>1066.127311827553</v>
+        <v>910.9641928553087</v>
       </c>
       <c r="N34" t="n">
-        <v>1635.885026789087</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O34" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P34" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
@@ -6885,25 +6885,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T34" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U34" t="n">
-        <v>2081.940945496479</v>
+        <v>1954.586457855462</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.98543736691</v>
+        <v>1667.630949725893</v>
       </c>
       <c r="W34" t="n">
-        <v>1522.959032953201</v>
+        <v>1395.604545312184</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.567278286614</v>
+        <v>1150.212790645597</v>
       </c>
       <c r="Y34" t="n">
-        <v>1050.147607600722</v>
+        <v>922.7931199597051</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>47.20655154895473</v>
+        <v>1080.420058888313</v>
       </c>
       <c r="C35" t="n">
-        <v>47.20655154895473</v>
+        <v>882.6190276950331</v>
       </c>
       <c r="D35" t="n">
-        <v>47.20655154895473</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E35" t="n">
-        <v>47.20655154895473</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F35" t="n">
-        <v>47.20655154895473</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N35" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q35" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R35" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T35" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U35" t="n">
-        <v>1889.485634438363</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V35" t="n">
-        <v>1526.868684372189</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W35" t="n">
-        <v>1122.013229783223</v>
+        <v>1915.005753073567</v>
       </c>
       <c r="X35" t="n">
-        <v>881.7922457342091</v>
+        <v>1915.005753073567</v>
       </c>
       <c r="Y35" t="n">
-        <v>473.5061220338625</v>
+        <v>1506.719629373221</v>
       </c>
     </row>
     <row r="36">
@@ -6995,25 +6995,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E36" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G36" t="n">
         <v>79.1492015823585</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>616.0817647851416</v>
+        <v>699.0748969752688</v>
       </c>
       <c r="C37" t="n">
-        <v>443.5200532683665</v>
+        <v>526.5131854584937</v>
       </c>
       <c r="D37" t="n">
-        <v>277.6420604698892</v>
+        <v>526.5131854584937</v>
       </c>
       <c r="E37" t="n">
-        <v>107.8840567206265</v>
+        <v>526.5131854584937</v>
       </c>
       <c r="F37" t="n">
-        <v>47.20655154895473</v>
+        <v>349.8061314202499</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895473</v>
+        <v>185.0649510327683</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895473</v>
+        <v>52.72089041208423</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J37" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545214</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L37" t="n">
-        <v>733.4227107706873</v>
+        <v>413.3628026016839</v>
       </c>
       <c r="M37" t="n">
-        <v>1317.603786189002</v>
+        <v>997.5438780199987</v>
       </c>
       <c r="N37" t="n">
-        <v>1887.361501150536</v>
+        <v>1567.301592981533</v>
       </c>
       <c r="O37" t="n">
-        <v>2005.127382498298</v>
+        <v>2104.736723555076</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675981</v>
+        <v>2205.505779732759</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7122,25 +7122,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T37" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U37" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V37" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W37" t="n">
-        <v>1280.711808856608</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X37" t="n">
-        <v>1035.320054190021</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y37" t="n">
-        <v>807.9003835041287</v>
+        <v>890.8935156942559</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>755.070575821621</v>
+        <v>857.7924676370825</v>
       </c>
       <c r="C38" t="n">
-        <v>316.9281030050443</v>
+        <v>857.7924676370825</v>
       </c>
       <c r="D38" t="n">
-        <v>316.9281030050443</v>
+        <v>421.882682811527</v>
       </c>
       <c r="E38" t="n">
         <v>316.9281030050443</v>
@@ -7171,13 +7171,13 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L38" t="n">
         <v>805.4408022867025</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U38" t="n">
-        <v>1889.485634438363</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V38" t="n">
-        <v>1526.86868437219</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W38" t="n">
-        <v>1122.013229783223</v>
+        <v>1703.23450154268</v>
       </c>
       <c r="X38" t="n">
-        <v>755.070575821621</v>
+        <v>1284.09203812199</v>
       </c>
       <c r="Y38" t="n">
-        <v>755.070575821621</v>
+        <v>1284.09203812199</v>
       </c>
     </row>
     <row r="39">
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>616.081764785142</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C40" t="n">
-        <v>616.081764785142</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D40" t="n">
-        <v>450.2037719866647</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E40" t="n">
-        <v>280.445768237402</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F40" t="n">
-        <v>103.7387141991582</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G40" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I40" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K40" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L40" t="n">
-        <v>744.992999204955</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M40" t="n">
-        <v>1329.17407462327</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N40" t="n">
-        <v>1635.885026789087</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O40" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7368,16 +7368,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V40" t="n">
-        <v>1552.738213270317</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="W40" t="n">
-        <v>1280.711808856609</v>
+        <v>1567.667316986178</v>
       </c>
       <c r="X40" t="n">
-        <v>1035.320054190021</v>
+        <v>1322.275562319591</v>
       </c>
       <c r="Y40" t="n">
-        <v>807.9003835041292</v>
+        <v>1094.855891633699</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1106.599419841793</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="C41" t="n">
-        <v>668.4569470252163</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="D41" t="n">
-        <v>475.073981139747</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="E41" t="n">
-        <v>475.073981139747</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N41" t="n">
         <v>1463.013992431967</v>
@@ -7429,7 +7429,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163596</v>
@@ -7438,25 +7438,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U41" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V41" t="n">
-        <v>2360.327577447737</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="W41" t="n">
-        <v>2360.327577447737</v>
+        <v>1293.318111528908</v>
       </c>
       <c r="X41" t="n">
-        <v>1941.185114027047</v>
+        <v>874.1756481082185</v>
       </c>
       <c r="Y41" t="n">
-        <v>1532.898990326701</v>
+        <v>465.8895244078719</v>
       </c>
     </row>
     <row r="42">
@@ -7469,22 +7469,22 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E42" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G42" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I42" t="n">
         <v>81.42328772043086</v>
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>663.4738450083632</v>
+        <v>864.4553742723976</v>
       </c>
       <c r="C43" t="n">
-        <v>490.9121334915882</v>
+        <v>691.8936627556226</v>
       </c>
       <c r="D43" t="n">
-        <v>325.0341406931109</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="E43" t="n">
-        <v>155.2761369438481</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F43" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>320.0013704257346</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L43" t="n">
-        <v>862.0820538119935</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M43" t="n">
-        <v>992.686446150523</v>
+        <v>1317.603786189002</v>
       </c>
       <c r="N43" t="n">
-        <v>1120.185357954412</v>
+        <v>1887.361501150537</v>
       </c>
       <c r="O43" t="n">
-        <v>1657.620488527956</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T43" t="n">
-        <v>1973.653814855378</v>
+        <v>2174.635344119412</v>
       </c>
       <c r="U43" t="n">
-        <v>1695.267182904121</v>
+        <v>1896.248712168155</v>
       </c>
       <c r="V43" t="n">
-        <v>1408.311674774551</v>
+        <v>1609.293204038585</v>
       </c>
       <c r="W43" t="n">
-        <v>1136.285270360843</v>
+        <v>1337.266799624877</v>
       </c>
       <c r="X43" t="n">
-        <v>890.893515694255</v>
+        <v>1091.875044958289</v>
       </c>
       <c r="Y43" t="n">
-        <v>663.4738450083632</v>
+        <v>864.4553742723976</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1782.900983623584</v>
+        <v>447.8760776233107</v>
       </c>
       <c r="C44" t="n">
-        <v>1344.758510807007</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="D44" t="n">
-        <v>908.8487259814518</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="E44" t="n">
-        <v>475.073981139747</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895475</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895475</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M44" t="n">
         <v>1131.58869045549</v>
@@ -7669,31 +7669,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q44" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2319.861207662535</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2319.861207662535</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U44" t="n">
-        <v>2060.790516184049</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V44" t="n">
-        <v>1782.900983623584</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="W44" t="n">
-        <v>1782.900983623584</v>
+        <v>1293.318111528908</v>
       </c>
       <c r="X44" t="n">
-        <v>1782.900983623584</v>
+        <v>874.1756481082185</v>
       </c>
       <c r="Y44" t="n">
-        <v>1782.900983623584</v>
+        <v>874.1756481082185</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>542.5713050663912</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.1148439030335</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495868</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765405</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927021</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G45" t="n">
         <v>79.1492015823585</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043081</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J45" t="n">
         <v>175.316627066898</v>
@@ -7733,10 +7733,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M45" t="n">
-        <v>803.3877032987882</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
@@ -7748,13 +7748,13 @@
         <v>1488.088567599445</v>
       </c>
       <c r="Q45" t="n">
-        <v>1614.94766180768</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R45" t="n">
         <v>1676.651116233592</v>
       </c>
       <c r="S45" t="n">
-        <v>1632.030085633327</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T45" t="n">
         <v>1505.938530508979</v>
@@ -7763,16 +7763,16 @@
         <v>1329.66869333286</v>
       </c>
       <c r="V45" t="n">
-        <v>1130.55117539486</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W45" t="n">
-        <v>945.2284211280537</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X45" t="n">
-        <v>790.3609853669336</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y45" t="n">
-        <v>663.8752061461544</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="46">
@@ -7782,52 +7782,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>687.748320234154</v>
+        <v>858.3289888817353</v>
       </c>
       <c r="C46" t="n">
-        <v>515.1866087173789</v>
+        <v>685.7672773649603</v>
       </c>
       <c r="D46" t="n">
-        <v>349.3086159189016</v>
+        <v>519.889284566483</v>
       </c>
       <c r="E46" t="n">
-        <v>179.5506121696388</v>
+        <v>519.889284566483</v>
       </c>
       <c r="F46" t="n">
-        <v>179.5506121696388</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G46" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895475</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>202.9123158186961</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L46" t="n">
-        <v>326.7831174369941</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M46" t="n">
-        <v>910.964192855309</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N46" t="n">
-        <v>1480.721907816843</v>
+        <v>1399.801244395024</v>
       </c>
       <c r="O46" t="n">
-        <v>2018.157038390387</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.92609456807</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q46" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
         <v>2360.327577447737</v>
@@ -7836,22 +7836,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T46" t="n">
-        <v>2118.080353351144</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U46" t="n">
-        <v>1839.693721399887</v>
+        <v>2081.94094549648</v>
       </c>
       <c r="V46" t="n">
-        <v>1552.738213270317</v>
+        <v>1794.98543736691</v>
       </c>
       <c r="W46" t="n">
-        <v>1280.711808856609</v>
+        <v>1522.959032953202</v>
       </c>
       <c r="X46" t="n">
-        <v>1035.320054190021</v>
+        <v>1277.567278286614</v>
       </c>
       <c r="Y46" t="n">
-        <v>807.9003835041296</v>
+        <v>1050.147607600722</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>17.27435144824426</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>16.80470271645416</v>
+        <v>327.3670431532728</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8853,10 +8853,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>329.5063656617904</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>194.52247679354</v>
+        <v>177.9839075203757</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -8865,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>16.80470271645346</v>
+        <v>16.80470271645322</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>324.6857794047927</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>326.9089969136442</v>
+        <v>326.9089969136443</v>
       </c>
       <c r="O16" t="n">
-        <v>319.8595504151439</v>
+        <v>284.5740729807671</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9327,13 +9327,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>175.7179764032068</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>175.7179764032066</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>347.0837767286134</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>167.4632046631937</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>156.7304232042868</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>458.1582657371569</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>141.4680432173443</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10038,10 +10038,10 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>156.7304232042868</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10050,7 +10050,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>192.4544649334025</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10275,13 +10275,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>45.75904403825086</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>70.05088382580993</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>156.7304232042868</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -10518,16 +10518,16 @@
         <v>458.1582657371569</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>82.54773060122693</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10746,25 +10746,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>45.75904403825052</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>458.1582657371569</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>69.27619576520601</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>181.0222629918462</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,25 +11217,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>118.2717723303419</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>81.48308576736645</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821538</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>458.1582657371571</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>141.4680432173448</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>156.730423204287</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23263,19 +23263,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>13.36505512097506</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>11.25136553696291</v>
       </c>
       <c r="F11" t="n">
-        <v>5.403123438559476</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>52.51403670113842</v>
       </c>
       <c r="T11" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.5237009191198</v>
       </c>
       <c r="V11" t="n">
-        <v>241.1420755233591</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>222.5448951868205</v>
       </c>
     </row>
     <row r="12">
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>104.9692583343669</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>105.682687547691</v>
       </c>
       <c r="G13" t="n">
         <v>163.3388892342509</v>
       </c>
       <c r="H13" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>69.83578017384922</v>
@@ -23466,22 +23466,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,16 +23497,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>99.80834201126635</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>13.36505512097494</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>371.57446107077</v>
       </c>
       <c r="G14" t="n">
         <v>396.054118850051</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>52.51403670113841</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>73.88348372698225</v>
+        <v>0.1892168869215709</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.3388892342509</v>
@@ -23673,7 +23673,7 @@
         <v>133.1999654356588</v>
       </c>
       <c r="I16" t="n">
-        <v>69.83578017384922</v>
+        <v>69.8357801738492</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>63.96803218459638</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>406.3509302746904</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>151.6391547027495</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>69.52134278359608</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.3722175562185</v>
       </c>
       <c r="E20" t="n">
-        <v>265.3352856806295</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>28.05521018289696</v>
       </c>
       <c r="X22" t="n">
-        <v>105.2993565597131</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24208,22 +24208,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>130.9413785502862</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>363.6220731221552</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>103.0230384636517</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>6.497492674413465</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>97.98723050495232</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>195.942273879887</v>
       </c>
     </row>
     <row r="27">
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>48.85018410292825</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>37.92262243404045</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>217.319695498878</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>53.13635639642945</v>
       </c>
       <c r="G29" t="n">
         <v>395.5076644073176</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>76.70400539372727</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>62.46433369811443</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>183.8381679969569</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>312.6510955910882</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>306.4501967950143</v>
       </c>
     </row>
     <row r="33">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>38.13827010588576</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>131.0206200144773</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>16.90133034620112</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25156,10 +25156,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>237.9380272070636</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
@@ -25168,7 +25168,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>267.0243359415286</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>177.132264577959</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>114.8692533779063</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>57.00513822361624</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>325.5319633848699</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>51.67781136449634</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>187.3620226258304</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>107.1269275599054</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>7.540431649730692</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>240.1015507506853</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>395.5076644073176</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>67.95109395691686</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>62.46433369811443</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>55.9894408605856</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>304.1225532163272</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25924,13 +25924,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>83.88014333065172</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>70.94988989452135</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>63.56280010670687</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811442</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>333791.4759135139</v>
+        <v>333791.4759135138</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>333791.4759135138</v>
+        <v>333791.4759135139</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>422343.3931497202</v>
+        <v>422343.3931497201</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>422343.3931497202</v>
+        <v>422343.3931497201</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>422343.3931497201</v>
+        <v>422343.39314972</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>422343.39314972</v>
+        <v>422343.3931497202</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>422343.39314972</v>
+        <v>422343.3931497201</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>422343.3931497201</v>
+        <v>422343.3931497202</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>422343.39314972</v>
+        <v>422343.3931497202</v>
       </c>
     </row>
     <row r="16">
@@ -26331,7 +26331,7 @@
         <v>141567.8141707356</v>
       </c>
       <c r="H2" t="n">
-        <v>141567.8141707357</v>
+        <v>141567.8141707356</v>
       </c>
       <c r="I2" t="n">
         <v>141567.8141707356</v>
@@ -26340,13 +26340,13 @@
         <v>141567.8141707356</v>
       </c>
       <c r="K2" t="n">
+        <v>141567.8141707357</v>
+      </c>
+      <c r="L2" t="n">
         <v>141567.8141707355</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>141567.8141707356</v>
-      </c>
-      <c r="M2" t="n">
-        <v>141567.8141707357</v>
       </c>
       <c r="N2" t="n">
         <v>141567.8141707357</v>
@@ -26355,7 +26355,7 @@
         <v>141567.8141707356</v>
       </c>
       <c r="P2" t="n">
-        <v>141567.8141707357</v>
+        <v>141567.8141707356</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>152798.4169065694</v>
+        <v>152798.4169065693</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>41367.00746823738</v>
+        <v>41367.00746823735</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26481,19 +26481,19 @@
         <v>32636.50261996421</v>
       </c>
       <c r="F5" t="n">
-        <v>32636.50261996421</v>
+        <v>32636.50261996422</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="K5" t="n">
         <v>46051.08120963782</v>
@@ -26502,16 +26502,16 @@
         <v>46051.08120963781</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="N5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963782</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>-331362.1972556096</v>
+        <v>-332093.9481773843</v>
       </c>
       <c r="F6" t="n">
-        <v>59241.55572814944</v>
+        <v>58509.80480637471</v>
       </c>
       <c r="G6" t="n">
-        <v>-71119.16108856027</v>
+        <v>-71673.04153178207</v>
       </c>
       <c r="H6" t="n">
-        <v>81679.25581800926</v>
+        <v>81125.37537478723</v>
       </c>
       <c r="I6" t="n">
-        <v>81679.2558180092</v>
+        <v>81125.37537478721</v>
       </c>
       <c r="J6" t="n">
-        <v>81679.25581800917</v>
+        <v>81125.37537478721</v>
       </c>
       <c r="K6" t="n">
-        <v>81679.25581800911</v>
+        <v>81125.3753747873</v>
       </c>
       <c r="L6" t="n">
-        <v>81679.25581800917</v>
+        <v>81125.37537478718</v>
       </c>
       <c r="M6" t="n">
-        <v>-22534.27638311434</v>
+        <v>-23088.1568263364</v>
       </c>
       <c r="N6" t="n">
-        <v>81679.25581800926</v>
+        <v>81125.3753747873</v>
       </c>
       <c r="O6" t="n">
-        <v>40312.24834977183</v>
+        <v>39758.36790654992</v>
       </c>
       <c r="P6" t="n">
-        <v>81679.25581800923</v>
+        <v>81125.37537478727</v>
       </c>
     </row>
   </sheetData>
@@ -26752,16 +26752,16 @@
         <v>330.7713854632872</v>
       </c>
       <c r="G3" t="n">
+        <v>466.7019280932211</v>
+      </c>
+      <c r="H3" t="n">
+        <v>466.7019280932211</v>
+      </c>
+      <c r="I3" t="n">
         <v>466.7019280932212</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>466.7019280932212</v>
-      </c>
-      <c r="I3" t="n">
-        <v>466.7019280932211</v>
-      </c>
-      <c r="J3" t="n">
-        <v>466.7019280932211</v>
       </c>
       <c r="K3" t="n">
         <v>466.7019280932212</v>
@@ -26779,7 +26779,7 @@
         <v>466.7019280932212</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932212</v>
       </c>
     </row>
     <row r="4">
@@ -26801,19 +26801,19 @@
         <v>418.1856318563248</v>
       </c>
       <c r="F4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.185631856325</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="I4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="J4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="K4" t="n">
         <v>590.0818943619342</v>
@@ -26822,16 +26822,16 @@
         <v>590.0818943619341</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
     </row>
   </sheetData>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>135.930542629934</v>
+        <v>135.9305426299339</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>171.8962625056094</v>
+        <v>171.8962625056092</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.185631856325</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>171.8962625056093</v>
+        <v>171.8962625056092</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>171.8962625056094</v>
+        <v>171.8962625056092</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31989,19 +31989,19 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.329734212917736</v>
+        <v>1.329734212917737</v>
       </c>
       <c r="H14" t="n">
         <v>13.61814050804377</v>
       </c>
       <c r="I14" t="n">
-        <v>51.26457824351108</v>
+        <v>51.26457824351109</v>
       </c>
       <c r="J14" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K14" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L14" t="n">
         <v>209.8420318050159</v>
@@ -32013,7 +32013,7 @@
         <v>237.2677999464442</v>
       </c>
       <c r="O14" t="n">
-        <v>224.0452553667434</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P14" t="n">
         <v>191.2174419853368</v>
@@ -32022,13 +32022,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R14" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219385</v>
       </c>
       <c r="S14" t="n">
         <v>30.30131837686295</v>
       </c>
       <c r="T14" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047395</v>
       </c>
       <c r="U14" t="n">
         <v>0.1063787370334189</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229197</v>
       </c>
       <c r="H15" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284515</v>
       </c>
       <c r="I15" t="n">
-        <v>24.49580543289438</v>
+        <v>24.49580543289439</v>
       </c>
       <c r="J15" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872331</v>
       </c>
       <c r="K15" t="n">
         <v>114.8868877226589</v>
@@ -32095,10 +32095,10 @@
         <v>169.27693723799</v>
       </c>
       <c r="P15" t="n">
-        <v>135.8596658518924</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.81858870305199</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R15" t="n">
         <v>44.17358238319147</v>
@@ -32107,10 +32107,10 @@
         <v>13.21525299468887</v>
       </c>
       <c r="T15" t="n">
-        <v>2.867725502271328</v>
+        <v>2.867725502271329</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.04680727152782369</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,46 +32147,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.5964729901796982</v>
       </c>
       <c r="H16" t="n">
-        <v>5.303187130870411</v>
+        <v>5.303187130870412</v>
       </c>
       <c r="I16" t="n">
         <v>17.9375695592222</v>
       </c>
       <c r="J16" t="n">
-        <v>42.17064040570465</v>
+        <v>42.17064040570466</v>
       </c>
       <c r="K16" t="n">
         <v>69.2993164954231</v>
       </c>
       <c r="L16" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M16" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153213</v>
       </c>
       <c r="N16" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268062</v>
       </c>
       <c r="O16" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103592</v>
       </c>
       <c r="P16" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692137002</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495637</v>
       </c>
       <c r="R16" t="n">
-        <v>26.81959463117078</v>
+        <v>26.81959463117079</v>
       </c>
       <c r="S16" t="n">
-        <v>10.39489747431346</v>
+        <v>10.39489747431347</v>
       </c>
       <c r="T16" t="n">
-        <v>2.548566412585982</v>
+        <v>2.548566412585983</v>
       </c>
       <c r="U16" t="n">
         <v>0.03253489037343812</v>
@@ -32232,28 +32232,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32265,7 +32265,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,13 +32308,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -32326,25 +32326,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356906</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
@@ -32396,7 +32396,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32420,10 +32420,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
         <v>0.04590510768130049</v>
@@ -32469,28 +32469,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -32499,10 +32499,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,46 +32545,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S21" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,25 +32621,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998885</v>
@@ -32651,19 +32651,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R22" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,28 +32706,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -32739,7 +32739,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32782,13 +32782,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -32800,25 +32800,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U24" t="n">
         <v>0.06604272567356906</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
@@ -32870,7 +32870,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32894,10 +32894,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U25" t="n">
         <v>0.04590510768130049</v>
@@ -32943,28 +32943,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -32976,7 +32976,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,13 +33019,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I27" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -33037,25 +33037,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U27" t="n">
         <v>0.06604272567356906</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
@@ -33107,7 +33107,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33131,10 +33131,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U28" t="n">
         <v>0.04590510768130049</v>
@@ -33991,7 +33991,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
@@ -34207,7 +34207,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916782</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562339</v>
@@ -34362,13 +34362,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H44" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
@@ -34377,10 +34377,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
         <v>316.1166813548411</v>
@@ -34395,10 +34395,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U44" t="n">
         <v>0.1500950924520911</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S45" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,25 +34517,25 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J46" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
         <v>128.7867795998885</v>
@@ -34547,19 +34547,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R46" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35415,22 +35415,22 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L11" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M11" t="n">
         <v>233.4896926139916</v>
       </c>
       <c r="N11" t="n">
-        <v>237.267799946444</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O11" t="n">
-        <v>224.0452553667435</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P11" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q11" t="n">
-        <v>143.5963354852204</v>
+        <v>143.5963354852202</v>
       </c>
       <c r="R11" t="n">
         <v>83.52891675219394</v>
@@ -35488,7 +35488,7 @@
         <v>50.82274801921519</v>
       </c>
       <c r="J12" t="n">
-        <v>395.0550542837863</v>
+        <v>84.49271384696755</v>
       </c>
       <c r="K12" t="n">
         <v>114.8868877226589</v>
@@ -35503,13 +35503,13 @@
         <v>185.041626288561</v>
       </c>
       <c r="O12" t="n">
-        <v>169.2769372379898</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P12" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q12" t="n">
-        <v>107.6232914195061</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="R12" t="n">
         <v>162.5299238926254</v>
@@ -35573,22 +35573,22 @@
         <v>346.8331089915197</v>
       </c>
       <c r="L13" t="n">
+        <v>88.67926619453442</v>
+      </c>
+      <c r="M13" t="n">
+        <v>271.4837599719078</v>
+      </c>
+      <c r="N13" t="n">
+        <v>91.27663494268052</v>
+      </c>
+      <c r="O13" t="n">
+        <v>84.30874592103589</v>
+      </c>
+      <c r="P13" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="M13" t="n">
-        <v>288.0223292450721</v>
-      </c>
-      <c r="N13" t="n">
-        <v>91.27663494268063</v>
-      </c>
-      <c r="O13" t="n">
-        <v>84.30874592103578</v>
-      </c>
-      <c r="P13" t="n">
-        <v>72.14069692136991</v>
-      </c>
       <c r="Q13" t="n">
-        <v>219.8381709871103</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R13" t="n">
         <v>5.615951549488944</v>
@@ -35646,13 +35646,13 @@
         <v>50.85195676437969</v>
       </c>
       <c r="J14" t="n">
-        <v>112.8595291536272</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K14" t="n">
         <v>169.1471783864347</v>
       </c>
       <c r="L14" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M14" t="n">
         <v>233.4896926139917</v>
@@ -35661,7 +35661,7 @@
         <v>237.2677999464443</v>
       </c>
       <c r="O14" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667437</v>
       </c>
       <c r="P14" t="n">
         <v>191.2174419853368</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>50.82274801921519</v>
+        <v>50.8227480192152</v>
       </c>
       <c r="J15" t="n">
         <v>395.0550542837863</v>
@@ -35734,10 +35734,10 @@
         <v>154.4795984656607</v>
       </c>
       <c r="M15" t="n">
-        <v>180.2704050774914</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N15" t="n">
-        <v>185.041626288561</v>
+        <v>185.0416262885611</v>
       </c>
       <c r="O15" t="n">
         <v>169.2769372379901</v>
@@ -35746,7 +35746,7 @@
         <v>135.8596658518925</v>
       </c>
       <c r="Q15" t="n">
-        <v>107.6232914195054</v>
+        <v>107.6232914195052</v>
       </c>
       <c r="R15" t="n">
         <v>162.5299238926257</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>129.6248678447853</v>
+        <v>42.17064040570466</v>
       </c>
       <c r="K16" t="n">
-        <v>69.29931649542311</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L16" t="n">
         <v>88.67926619453442</v>
       </c>
       <c r="M16" t="n">
-        <v>418.1856318563248</v>
+        <v>93.49985245153215</v>
       </c>
       <c r="N16" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="O16" t="n">
-        <v>404.1682963361798</v>
+        <v>368.8828189018031</v>
       </c>
       <c r="P16" t="n">
         <v>72.14069692136991</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.9464792049564</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R16" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488951</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,19 +35880,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125713</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -35904,7 +35904,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
         <v>117.855135640546</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415862</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K19" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>300.8399982398713</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>304.5047560030951</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
         <v>542.8637682561043</v>
@@ -36062,7 +36062,7 @@
         <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36117,19 +36117,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
@@ -36211,7 +36211,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M22" t="n">
-        <v>479.0074053533906</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O22" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485103</v>
+        <v>269.2501300951972</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P23" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -36448,7 +36448,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
@@ -36460,7 +36460,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
-        <v>281.8524450409514</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M25" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="N25" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
-        <v>542.8637682561041</v>
+        <v>260.4234789221541</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36591,19 +36591,19 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
         <v>159.2391669125709</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
@@ -36615,10 +36615,10 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562326</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -36755,22 +36755,22 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
-        <v>281.8524450409514</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M28" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
         <v>575.512843395489</v>
       </c>
       <c r="O28" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>294.241390365406</v>
       </c>
       <c r="Q28" t="n">
         <v>70.4719911420766</v>
@@ -36831,7 +36831,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
         <v>238.6582327062838</v>
@@ -36840,7 +36840,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
@@ -36913,10 +36913,10 @@
         <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -36995,13 +36995,13 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>170.8810658749154</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M31" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N31" t="n">
-        <v>575.512843395489</v>
+        <v>198.8376634256983</v>
       </c>
       <c r="O31" t="n">
         <v>118.9554357048098</v>
@@ -37086,7 +37086,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916782</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
@@ -37229,7 +37229,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>254.5083025654567</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -37238,16 +37238,16 @@
         <v>590.0818943619341</v>
       </c>
       <c r="N34" t="n">
-        <v>575.512843395489</v>
+        <v>211.3345102011153</v>
       </c>
       <c r="O34" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37305,31 +37305,31 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125713</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562339</v>
@@ -37466,25 +37466,25 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K37" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
-        <v>170.8810658749151</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N37" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.36368292423</v>
+        <v>139.7481869072826</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37542,13 +37542,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M40" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>309.8090425917346</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561041</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37779,16 +37779,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
@@ -37797,7 +37797,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916782</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562339</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K43" t="n">
-        <v>216.0496516915119</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247772</v>
+        <v>213.4067143921436</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O43" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P43" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
@@ -38025,7 +38025,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
@@ -38037,7 +38037,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
         <v>117.855135640546</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916773</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P45" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002372</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
         <v>62.32672164233622</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624559</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116994</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N46" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>542.8637682561043</v>
+        <v>260.4234789221546</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>227.2024143463636</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
